--- a/build/classes/selenium/CatererStaffTestCase2.xlsx
+++ b/build/classes/selenium/CatererStaffTestCase2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Music\event_catering_management\test\selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47D05DE-74C5-4104-A5B5-652055BF1416}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E6F0D4-A5BE-4BED-AD17-16EA211C610E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,10 +440,10 @@
         <v>129</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="1">
         <v>43951</v>
